--- a/penalties_data.xlsx
+++ b/penalties_data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10604"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danneidle/Coding/tax_plotting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dan/Coding/tax_plotting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C792FF-496D-6F45-80E3-439535D5A838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A68BA7-CC5C-5845-AF11-E926919CDA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{E049182C-2A0A-BE48-B0CF-CB9CD5EEEAC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="late filing" sheetId="1" r:id="rId1"/>
-    <sheet name="late payment" sheetId="3" r:id="rId2"/>
-    <sheet name="personal allowance" sheetId="4" r:id="rId3"/>
+    <sheet name="£100 late filing" sheetId="1" r:id="rId1"/>
+    <sheet name="£300 late filing" sheetId="5" r:id="rId2"/>
+    <sheet name="late payment" sheetId="3" r:id="rId3"/>
+    <sheet name="personal allowance" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
   <si>
     <t>2018/19</t>
   </si>
@@ -234,7 +235,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,6 +262,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,10 +287,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -287,8 +300,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -305,9 +320,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -345,7 +360,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -451,7 +466,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,7 +608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,7 +619,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,7 +854,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>25990</v>
@@ -880,7 +895,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>23730.000000000004</v>
@@ -921,7 +936,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>21470</v>
@@ -962,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>19210</v>
@@ -1003,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>28250</v>
@@ -1044,7 +1059,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>32770</v>
@@ -1053,7 +1068,7 @@
         <v>9040.0000000000073</v>
       </c>
       <c r="E12" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12">
         <v>23730.000000000004</v>
@@ -1086,11 +1101,406 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B49990-FE84-9C47-925E-40785ECCAF8C}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>29000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>13000</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>31000</v>
+      </c>
+      <c r="G3">
+        <v>14000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>17000</v>
+      </c>
+      <c r="J3">
+        <v>7000</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>11000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>12000</v>
+      </c>
+      <c r="G4">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>8000</v>
+      </c>
+      <c r="J4">
+        <v>3000</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>9000</v>
+      </c>
+      <c r="G5">
+        <v>3000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>6000</v>
+      </c>
+      <c r="J5">
+        <v>2000</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>8000</v>
+      </c>
+      <c r="G6">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>5000</v>
+      </c>
+      <c r="J6">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>8000</v>
+      </c>
+      <c r="G7">
+        <v>3000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>5000</v>
+      </c>
+      <c r="J7">
+        <v>2000</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>7000</v>
+      </c>
+      <c r="G8">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>4000</v>
+      </c>
+      <c r="J8">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>7000</v>
+      </c>
+      <c r="G9">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>32</v>
+      </c>
+      <c r="I9">
+        <v>4000</v>
+      </c>
+      <c r="J9">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>6000</v>
+      </c>
+      <c r="G10">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>3000</v>
+      </c>
+      <c r="J10">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <v>8000</v>
+      </c>
+      <c r="G11">
+        <v>3000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>53</v>
+      </c>
+      <c r="I11">
+        <v>4000</v>
+      </c>
+      <c r="J11">
+        <v>2000</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>84</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9000</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>87</v>
+      </c>
+      <c r="F12">
+        <v>11000</v>
+      </c>
+      <c r="G12">
+        <v>4000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>90</v>
+      </c>
+      <c r="I12">
+        <v>5000</v>
+      </c>
+      <c r="J12">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B18E95-3AB5-9B44-826A-07D1DCB1EC56}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1328,7 +1738,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>39550.000000000007</v>
@@ -1369,7 +1779,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>46329.999999999993</v>
@@ -1410,7 +1820,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>47460.000000000007</v>
@@ -1451,7 +1861,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>48589.999999999993</v>
@@ -1492,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>64410</v>
@@ -1533,7 +1943,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>49720.000000000007</v>
@@ -1542,7 +1952,7 @@
         <v>10169.999999999993</v>
       </c>
       <c r="E12" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12">
         <v>40680.000000000007</v>
@@ -1579,7 +1989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3ACF51-3D24-6F41-8CA7-C842610BA9FB}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/penalties_data.xlsx
+++ b/penalties_data.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dan/Coding/tax_plotting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dan/Coding/tax_plotting/penalties_charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A68BA7-CC5C-5845-AF11-E926919CDA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA85D2E5-EB14-B34A-A529-931374A91402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{E049182C-2A0A-BE48-B0CF-CB9CD5EEEAC5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{E049182C-2A0A-BE48-B0CF-CB9CD5EEEAC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="£100 late filing" sheetId="1" r:id="rId1"/>
-    <sheet name="£300 late filing" sheetId="5" r:id="rId2"/>
-    <sheet name="late payment" sheetId="3" r:id="rId3"/>
-    <sheet name="personal allowance" sheetId="4" r:id="rId4"/>
+    <sheet name="£100 late filing penalty" sheetId="1" r:id="rId1"/>
+    <sheet name="late filing, penalties collecte" sheetId="7" r:id="rId2"/>
+    <sheet name="£300 late filing penalty" sheetId="5" r:id="rId3"/>
+    <sheet name="late payment penalties" sheetId="3" r:id="rId4"/>
+    <sheet name="late payment, penalties collect" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="personal allowance" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="210">
   <si>
     <t>2018/19</t>
   </si>
@@ -230,6 +255,576 @@
   <si>
     <t>decile_starting_income</t>
   </si>
+  <si>
+    <t>2022/23</t>
+  </si>
+  <si>
+    <t>RAW DATA</t>
+  </si>
+  <si>
+    <t>Table 1: Late submission penalties, including penalties later cancelled. 2020/21 </t>
+  </si>
+  <si>
+    <t>2021/22 </t>
+  </si>
+  <si>
+    <t>2022/23 </t>
+  </si>
+  <si>
+    <t>Decile </t>
+  </si>
+  <si>
+    <t>Customers (Thousands) </t>
+  </si>
+  <si>
+    <t>% </t>
+  </si>
+  <si>
+    <t>1st </t>
+  </si>
+  <si>
+    <t>117 </t>
+  </si>
+  <si>
+    <t>10.1% </t>
+  </si>
+  <si>
+    <t>112 </t>
+  </si>
+  <si>
+    <t>9.6% </t>
+  </si>
+  <si>
+    <t>92 </t>
+  </si>
+  <si>
+    <t>7.9% </t>
+  </si>
+  <si>
+    <t>2nd </t>
+  </si>
+  <si>
+    <t>63 </t>
+  </si>
+  <si>
+    <t>5.5% </t>
+  </si>
+  <si>
+    <t>60 </t>
+  </si>
+  <si>
+    <t>5.2% </t>
+  </si>
+  <si>
+    <t>50 </t>
+  </si>
+  <si>
+    <t>4.3% </t>
+  </si>
+  <si>
+    <t>3rd </t>
+  </si>
+  <si>
+    <t>48 </t>
+  </si>
+  <si>
+    <t>4.2% </t>
+  </si>
+  <si>
+    <t>46 </t>
+  </si>
+  <si>
+    <t>4.0% </t>
+  </si>
+  <si>
+    <t>37 </t>
+  </si>
+  <si>
+    <t>3.2% </t>
+  </si>
+  <si>
+    <t>4th </t>
+  </si>
+  <si>
+    <t>42 </t>
+  </si>
+  <si>
+    <t>3.6% </t>
+  </si>
+  <si>
+    <t>41 </t>
+  </si>
+  <si>
+    <t>33 </t>
+  </si>
+  <si>
+    <t>2.9% </t>
+  </si>
+  <si>
+    <t>5th </t>
+  </si>
+  <si>
+    <t>40 </t>
+  </si>
+  <si>
+    <t>3.5% </t>
+  </si>
+  <si>
+    <t>39 </t>
+  </si>
+  <si>
+    <t>3.4% </t>
+  </si>
+  <si>
+    <t>32 </t>
+  </si>
+  <si>
+    <t>2.7% </t>
+  </si>
+  <si>
+    <t>6th </t>
+  </si>
+  <si>
+    <t>36 </t>
+  </si>
+  <si>
+    <t>3.1% </t>
+  </si>
+  <si>
+    <t>30 </t>
+  </si>
+  <si>
+    <t>2.6% </t>
+  </si>
+  <si>
+    <t>7th </t>
+  </si>
+  <si>
+    <t>35 </t>
+  </si>
+  <si>
+    <t>3.0% </t>
+  </si>
+  <si>
+    <t>34 </t>
+  </si>
+  <si>
+    <t>27 </t>
+  </si>
+  <si>
+    <t>2.4% </t>
+  </si>
+  <si>
+    <t>8th </t>
+  </si>
+  <si>
+    <t>31 </t>
+  </si>
+  <si>
+    <t>2.8% </t>
+  </si>
+  <si>
+    <t>29 </t>
+  </si>
+  <si>
+    <t>9th </t>
+  </si>
+  <si>
+    <t>10th </t>
+  </si>
+  <si>
+    <t>45 </t>
+  </si>
+  <si>
+    <t>3.9% </t>
+  </si>
+  <si>
+    <t>49 </t>
+  </si>
+  <si>
+    <t>Total </t>
+  </si>
+  <si>
+    <t>495 </t>
+  </si>
+  <si>
+    <t>486 </t>
+  </si>
+  <si>
+    <t>410 </t>
+  </si>
+  <si>
+    <t>Table 2: Late submission penalties, excluding cancelled penalties. 2020/21 </t>
+  </si>
+  <si>
+    <t>68 </t>
+  </si>
+  <si>
+    <t>5.9% </t>
+  </si>
+  <si>
+    <t>70 </t>
+  </si>
+  <si>
+    <t>6.0% </t>
+  </si>
+  <si>
+    <t>62 </t>
+  </si>
+  <si>
+    <t>5.3% </t>
+  </si>
+  <si>
+    <t>2.5% </t>
+  </si>
+  <si>
+    <t>28 </t>
+  </si>
+  <si>
+    <t>25 </t>
+  </si>
+  <si>
+    <t>2.2% </t>
+  </si>
+  <si>
+    <t>2.3% </t>
+  </si>
+  <si>
+    <t>24 </t>
+  </si>
+  <si>
+    <t>2.0% </t>
+  </si>
+  <si>
+    <t>26 </t>
+  </si>
+  <si>
+    <t>22 </t>
+  </si>
+  <si>
+    <t>1.9% </t>
+  </si>
+  <si>
+    <t>23 </t>
+  </si>
+  <si>
+    <t>2.1% </t>
+  </si>
+  <si>
+    <t>21 </t>
+  </si>
+  <si>
+    <t>1.8% </t>
+  </si>
+  <si>
+    <t>320 </t>
+  </si>
+  <si>
+    <t>336 </t>
+  </si>
+  <si>
+    <t>302 </t>
+  </si>
+  <si>
+    <t>Table 4: Late payment penalties, including penalties later cancelled. 2020/21 </t>
+  </si>
+  <si>
+    <t>7 </t>
+  </si>
+  <si>
+    <t>0.7% </t>
+  </si>
+  <si>
+    <t>9 </t>
+  </si>
+  <si>
+    <t>3 </t>
+  </si>
+  <si>
+    <t>0.3% </t>
+  </si>
+  <si>
+    <t>5 </t>
+  </si>
+  <si>
+    <t>0.4% </t>
+  </si>
+  <si>
+    <t>0.2% </t>
+  </si>
+  <si>
+    <t>6 </t>
+  </si>
+  <si>
+    <t>0.6% </t>
+  </si>
+  <si>
+    <t>15 </t>
+  </si>
+  <si>
+    <t>1.3% </t>
+  </si>
+  <si>
+    <t>12 </t>
+  </si>
+  <si>
+    <t>1.0% </t>
+  </si>
+  <si>
+    <t>47 </t>
+  </si>
+  <si>
+    <t>4.1% </t>
+  </si>
+  <si>
+    <t>57 </t>
+  </si>
+  <si>
+    <t>4.9% </t>
+  </si>
+  <si>
+    <t>54 </t>
+  </si>
+  <si>
+    <t>4.7% </t>
+  </si>
+  <si>
+    <t>59 </t>
+  </si>
+  <si>
+    <t>5.1% </t>
+  </si>
+  <si>
+    <t>64 </t>
+  </si>
+  <si>
+    <t>66 </t>
+  </si>
+  <si>
+    <t>5.7% </t>
+  </si>
+  <si>
+    <t>65 </t>
+  </si>
+  <si>
+    <t>5.6% </t>
+  </si>
+  <si>
+    <t>67 </t>
+  </si>
+  <si>
+    <t>5.8% </t>
+  </si>
+  <si>
+    <t>6.1% </t>
+  </si>
+  <si>
+    <t>82 </t>
+  </si>
+  <si>
+    <t>7.0% </t>
+  </si>
+  <si>
+    <t>56 </t>
+  </si>
+  <si>
+    <t>72 </t>
+  </si>
+  <si>
+    <t>6.2% </t>
+  </si>
+  <si>
+    <t>69 </t>
+  </si>
+  <si>
+    <t>434 </t>
+  </si>
+  <si>
+    <t>3.8% </t>
+  </si>
+  <si>
+    <t>496 </t>
+  </si>
+  <si>
+    <t>438 </t>
+  </si>
+  <si>
+    <t>Table 5: Late payment penalties, excluding cancelled penalties. 2020/21 </t>
+  </si>
+  <si>
+    <t>0.5% </t>
+  </si>
+  <si>
+    <t>2 </t>
+  </si>
+  <si>
+    <t>1 </t>
+  </si>
+  <si>
+    <t>0.1% </t>
+  </si>
+  <si>
+    <t>4 </t>
+  </si>
+  <si>
+    <t>13 </t>
+  </si>
+  <si>
+    <t>1.1% </t>
+  </si>
+  <si>
+    <t>11 </t>
+  </si>
+  <si>
+    <t>0.9% </t>
+  </si>
+  <si>
+    <t>52 </t>
+  </si>
+  <si>
+    <t>4.5% </t>
+  </si>
+  <si>
+    <t>44 </t>
+  </si>
+  <si>
+    <t>53 </t>
+  </si>
+  <si>
+    <t>4.6% </t>
+  </si>
+  <si>
+    <t>58 </t>
+  </si>
+  <si>
+    <t>5.0% </t>
+  </si>
+  <si>
+    <t>71 </t>
+  </si>
+  <si>
+    <t>374 </t>
+  </si>
+  <si>
+    <t>3.3% </t>
+  </si>
+  <si>
+    <t>3.7% </t>
+  </si>
+  <si>
+    <t>389 </t>
+  </si>
+  <si>
+    <t>Table 3: Late submission penalties, penalties collected. 2020/21 </t>
+  </si>
+  <si>
+    <t>38% </t>
+  </si>
+  <si>
+    <t>41% </t>
+  </si>
+  <si>
+    <t>44% </t>
+  </si>
+  <si>
+    <t>48% </t>
+  </si>
+  <si>
+    <t>50% </t>
+  </si>
+  <si>
+    <t>51% </t>
+  </si>
+  <si>
+    <t>53% </t>
+  </si>
+  <si>
+    <t>55% </t>
+  </si>
+  <si>
+    <t>56% </t>
+  </si>
+  <si>
+    <t>57% </t>
+  </si>
+  <si>
+    <t>58% </t>
+  </si>
+  <si>
+    <t>60% </t>
+  </si>
+  <si>
+    <t>61% </t>
+  </si>
+  <si>
+    <t>59% </t>
+  </si>
+  <si>
+    <t>62% </t>
+  </si>
+  <si>
+    <t>68% </t>
+  </si>
+  <si>
+    <t>52% </t>
+  </si>
+  <si>
+    <t>54% </t>
+  </si>
+  <si>
+    <t>Table 6: Late payment penalties, penalties collected. 2020/21 </t>
+  </si>
+  <si>
+    <t>23% </t>
+  </si>
+  <si>
+    <t>24% </t>
+  </si>
+  <si>
+    <t>31% </t>
+  </si>
+  <si>
+    <t>35% </t>
+  </si>
+  <si>
+    <t>34% </t>
+  </si>
+  <si>
+    <t>26% </t>
+  </si>
+  <si>
+    <t>42% </t>
+  </si>
+  <si>
+    <t>40% </t>
+  </si>
+  <si>
+    <t>46% </t>
+  </si>
+  <si>
+    <t>63% </t>
+  </si>
+  <si>
+    <t>49% </t>
+  </si>
+  <si>
+    <t>66% </t>
+  </si>
+  <si>
+    <t>64% </t>
+  </si>
+  <si>
+    <t>65% </t>
+  </si>
+  <si>
+    <t>COPY DATA HERE FROM PDF</t>
+  </si>
+  <si>
+    <t>CELLS ABOVE STRIP BAD CHARACTERS</t>
+  </si>
+  <si>
+    <t>SIMPLE COPY PASTE FROM PDF</t>
+  </si>
 </sst>
 </file>
 
@@ -239,7 +834,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,6 +864,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -291,7 +907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -301,6 +917,15 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -616,76 +1241,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEB22B0-BA72-0D49-8FFA-76A6CA75621A}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E12"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="5" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="N2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -710,23 +1345,38 @@
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>60000</v>
-      </c>
-      <c r="J3">
-        <v>32000</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="I3" cm="1">
+        <f t="array" ref="I3">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H37, _xlfn.SEQUENCE(LEN(H37)), 1), ISNUMBER(--MID(H37, _xlfn.SEQUENCE(LEN(H37)), 1))))*1000</f>
+        <v>68000</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H22, _xlfn.SEQUENCE(LEN(H22)), 1), ISNUMBER(--MID(H22, _xlfn.SEQUENCE(LEN(H22)), 1))))*1000-I3</f>
+        <v>49000</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>40000</v>
-      </c>
-      <c r="M3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="L3" cm="1">
+        <f t="array" ref="L3">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K37, _xlfn.SEQUENCE(LEN(K37)), 1), ISNUMBER(--MID(K37, _xlfn.SEQUENCE(LEN(K37)), 1))))*1000</f>
+        <v>70000</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K22, _xlfn.SEQUENCE(LEN(K22)), 1), ISNUMBER(--MID(K22, _xlfn.SEQUENCE(LEN(K22)), 1))))*1000-L3</f>
+        <v>42000</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" cm="1">
+        <f t="array" ref="O3">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N37, _xlfn.SEQUENCE(LEN(N37)), 1), ISNUMBER(--MID(N37, _xlfn.SEQUENCE(LEN(N37)), 1))))*1000</f>
+        <v>62000</v>
+      </c>
+      <c r="P3" cm="1">
+        <f t="array" ref="P3">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N22, _xlfn.SEQUENCE(LEN(N22)), 1), ISNUMBER(--MID(N22, _xlfn.SEQUENCE(LEN(N22)), 1))))*1000-O3</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -751,23 +1401,38 @@
       <c r="H4" s="2">
         <v>6</v>
       </c>
-      <c r="I4">
+      <c r="I4" cm="1">
+        <f t="array" ref="I4">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H38, _xlfn.SEQUENCE(LEN(H38)), 1), ISNUMBER(--MID(H38, _xlfn.SEQUENCE(LEN(H38)), 1))))*1000</f>
+        <v>41000</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" ref="J4">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H23, _xlfn.SEQUENCE(LEN(H23)), 1), ISNUMBER(--MID(H23, _xlfn.SEQUENCE(LEN(H23)), 1))))*1000-I4</f>
+        <v>22000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="L4" cm="1">
+        <f t="array" ref="L4">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K38, _xlfn.SEQUENCE(LEN(K38)), 1), ISNUMBER(--MID(K38, _xlfn.SEQUENCE(LEN(K38)), 1))))*1000</f>
+        <v>42000</v>
+      </c>
+      <c r="M4" cm="1">
+        <f t="array" ref="M4">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K23, _xlfn.SEQUENCE(LEN(K23)), 1), ISNUMBER(--MID(K23, _xlfn.SEQUENCE(LEN(K23)), 1))))*1000-L4</f>
+        <v>18000</v>
+      </c>
+      <c r="N4" s="1">
+        <v>6.97</v>
+      </c>
+      <c r="O4" cm="1">
+        <f t="array" ref="O4">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N38, _xlfn.SEQUENCE(LEN(N38)), 1), ISNUMBER(--MID(N38, _xlfn.SEQUENCE(LEN(N38)), 1))))*1000</f>
         <v>37000</v>
       </c>
-      <c r="J4">
-        <v>15000</v>
-      </c>
-      <c r="K4" s="1">
-        <v>7</v>
-      </c>
-      <c r="L4">
-        <v>24000</v>
-      </c>
-      <c r="M4">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="P4" cm="1">
+        <f t="array" ref="P4">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N23, _xlfn.SEQUENCE(LEN(N23)), 1), ISNUMBER(--MID(N23, _xlfn.SEQUENCE(LEN(N23)), 1))))*1000-O4</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -792,23 +1457,38 @@
       <c r="H5" s="2">
         <v>10</v>
       </c>
-      <c r="I5">
+      <c r="I5" cm="1">
+        <f t="array" ref="I5">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H39, _xlfn.SEQUENCE(LEN(H39)), 1), ISNUMBER(--MID(H39, _xlfn.SEQUENCE(LEN(H39)), 1))))*1000</f>
+        <v>32000</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" ref="J5">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H24, _xlfn.SEQUENCE(LEN(H24)), 1), ISNUMBER(--MID(H24, _xlfn.SEQUENCE(LEN(H24)), 1))))*1000-I5</f>
+        <v>16000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="L5" cm="1">
+        <f t="array" ref="L5">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K39, _xlfn.SEQUENCE(LEN(K39)), 1), ISNUMBER(--MID(K39, _xlfn.SEQUENCE(LEN(K39)), 1))))*1000</f>
+        <v>33000</v>
+      </c>
+      <c r="M5" cm="1">
+        <f t="array" ref="M5">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K24, _xlfn.SEQUENCE(LEN(K24)), 1), ISNUMBER(--MID(K24, _xlfn.SEQUENCE(LEN(K24)), 1))))*1000-L5</f>
+        <v>13000</v>
+      </c>
+      <c r="N5" s="1">
+        <v>11.87</v>
+      </c>
+      <c r="O5" cm="1">
+        <f t="array" ref="O5">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N39, _xlfn.SEQUENCE(LEN(N39)), 1), ISNUMBER(--MID(N39, _xlfn.SEQUENCE(LEN(N39)), 1))))*1000</f>
         <v>29000</v>
       </c>
-      <c r="J5">
-        <v>11000</v>
-      </c>
-      <c r="K5" s="1">
-        <v>11</v>
-      </c>
-      <c r="L5">
-        <v>19000</v>
-      </c>
-      <c r="M5">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="P5" cm="1">
+        <f t="array" ref="P5">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N24, _xlfn.SEQUENCE(LEN(N24)), 1), ISNUMBER(--MID(N24, _xlfn.SEQUENCE(LEN(N24)), 1))))*1000-O5</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -833,23 +1513,38 @@
       <c r="H6" s="2">
         <v>14</v>
       </c>
-      <c r="I6">
+      <c r="I6" cm="1">
+        <f t="array" ref="I6">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H40, _xlfn.SEQUENCE(LEN(H40)), 1), ISNUMBER(--MID(H40, _xlfn.SEQUENCE(LEN(H40)), 1))))*1000</f>
+        <v>28000</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H25, _xlfn.SEQUENCE(LEN(H25)), 1), ISNUMBER(--MID(H25, _xlfn.SEQUENCE(LEN(H25)), 1))))*1000-I6</f>
+        <v>14000</v>
+      </c>
+      <c r="K6" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="L6" cm="1">
+        <f t="array" ref="L6">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K40, _xlfn.SEQUENCE(LEN(K40)), 1), ISNUMBER(--MID(K40, _xlfn.SEQUENCE(LEN(K40)), 1))))*1000</f>
+        <v>29000</v>
+      </c>
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K25, _xlfn.SEQUENCE(LEN(K25)), 1), ISNUMBER(--MID(K25, _xlfn.SEQUENCE(LEN(K25)), 1))))*1000-L6</f>
+        <v>12000</v>
+      </c>
+      <c r="N6" s="1">
+        <v>15.54</v>
+      </c>
+      <c r="O6" cm="1">
+        <f t="array" ref="O6">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N40, _xlfn.SEQUENCE(LEN(N40)), 1), ISNUMBER(--MID(N40, _xlfn.SEQUENCE(LEN(N40)), 1))))*1000</f>
         <v>25000</v>
       </c>
-      <c r="J6">
-        <v>10000</v>
-      </c>
-      <c r="K6" s="1">
-        <v>15</v>
-      </c>
-      <c r="L6">
-        <v>17000</v>
-      </c>
-      <c r="M6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="P6" cm="1">
+        <f t="array" ref="P6">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N25, _xlfn.SEQUENCE(LEN(N25)), 1), ISNUMBER(--MID(N25, _xlfn.SEQUENCE(LEN(N25)), 1))))*1000-O6</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -874,23 +1569,38 @@
       <c r="H7" s="2">
         <v>19</v>
       </c>
-      <c r="I7">
+      <c r="I7" cm="1">
+        <f t="array" ref="I7">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H41, _xlfn.SEQUENCE(LEN(H41)), 1), ISNUMBER(--MID(H41, _xlfn.SEQUENCE(LEN(H41)), 1))))*1000</f>
+        <v>27000</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H26, _xlfn.SEQUENCE(LEN(H26)), 1), ISNUMBER(--MID(H26, _xlfn.SEQUENCE(LEN(H26)), 1))))*1000-I7</f>
+        <v>13000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="L7" cm="1">
+        <f t="array" ref="L7">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K41, _xlfn.SEQUENCE(LEN(K41)), 1), ISNUMBER(--MID(K41, _xlfn.SEQUENCE(LEN(K41)), 1))))*1000</f>
+        <v>28000</v>
+      </c>
+      <c r="M7" cm="1">
+        <f t="array" ref="M7">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K26, _xlfn.SEQUENCE(LEN(K26)), 1), ISNUMBER(--MID(K26, _xlfn.SEQUENCE(LEN(K26)), 1))))*1000-L7</f>
+        <v>11000</v>
+      </c>
+      <c r="N7" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="O7" cm="1">
+        <f t="array" ref="O7">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N41, _xlfn.SEQUENCE(LEN(N41)), 1), ISNUMBER(--MID(N41, _xlfn.SEQUENCE(LEN(N41)), 1))))*1000</f>
         <v>24000</v>
       </c>
-      <c r="J7">
-        <v>9000</v>
-      </c>
-      <c r="K7" s="1">
-        <v>20</v>
-      </c>
-      <c r="L7">
-        <v>15000</v>
-      </c>
-      <c r="M7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="P7" cm="1">
+        <f t="array" ref="P7">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N26, _xlfn.SEQUENCE(LEN(N26)), 1), ISNUMBER(--MID(N26, _xlfn.SEQUENCE(LEN(N26)), 1))))*1000-O7</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -915,23 +1625,38 @@
       <c r="H8" s="2">
         <v>24</v>
       </c>
-      <c r="I8">
+      <c r="I8" cm="1">
+        <f t="array" ref="I8">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H42, _xlfn.SEQUENCE(LEN(H42)), 1), ISNUMBER(--MID(H42, _xlfn.SEQUENCE(LEN(H42)), 1))))*1000</f>
+        <v>25000</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H27, _xlfn.SEQUENCE(LEN(H27)), 1), ISNUMBER(--MID(H27, _xlfn.SEQUENCE(LEN(H27)), 1))))*1000-I8</f>
+        <v>12000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>25.9</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K42, _xlfn.SEQUENCE(LEN(K42)), 1), ISNUMBER(--MID(K42, _xlfn.SEQUENCE(LEN(K42)), 1))))*1000</f>
+        <v>26000</v>
+      </c>
+      <c r="M8" cm="1">
+        <f t="array" ref="M8">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K27, _xlfn.SEQUENCE(LEN(K27)), 1), ISNUMBER(--MID(K27, _xlfn.SEQUENCE(LEN(K27)), 1))))*1000-L8</f>
+        <v>10000</v>
+      </c>
+      <c r="N8" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="O8" cm="1">
+        <f t="array" ref="O8">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N42, _xlfn.SEQUENCE(LEN(N42)), 1), ISNUMBER(--MID(N42, _xlfn.SEQUENCE(LEN(N42)), 1))))*1000</f>
         <v>22000</v>
       </c>
-      <c r="J8">
-        <v>9000</v>
-      </c>
-      <c r="K8" s="1">
-        <v>26</v>
-      </c>
-      <c r="L8">
-        <v>14000</v>
-      </c>
-      <c r="M8">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="P8" cm="1">
+        <f t="array" ref="P8">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N27, _xlfn.SEQUENCE(LEN(N27)), 1), ISNUMBER(--MID(N27, _xlfn.SEQUENCE(LEN(N27)), 1))))*1000-O8</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -956,23 +1681,38 @@
       <c r="H9" s="2">
         <v>32</v>
       </c>
-      <c r="I9">
-        <v>20000</v>
-      </c>
-      <c r="J9">
-        <v>8000</v>
+      <c r="I9" cm="1">
+        <f t="array" ref="I9">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H43, _xlfn.SEQUENCE(LEN(H43)), 1), ISNUMBER(--MID(H43, _xlfn.SEQUENCE(LEN(H43)), 1))))*1000</f>
+        <v>23000</v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H28, _xlfn.SEQUENCE(LEN(H28)), 1), ISNUMBER(--MID(H28, _xlfn.SEQUENCE(LEN(H28)), 1))))*1000-I9</f>
+        <v>12000</v>
       </c>
       <c r="K9" s="1">
-        <v>34</v>
-      </c>
-      <c r="L9">
-        <v>14000</v>
-      </c>
-      <c r="M9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+        <v>33.6</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K43, _xlfn.SEQUENCE(LEN(K43)), 1), ISNUMBER(--MID(K43, _xlfn.SEQUENCE(LEN(K43)), 1))))*1000</f>
+        <v>25000</v>
+      </c>
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K28, _xlfn.SEQUENCE(LEN(K28)), 1), ISNUMBER(--MID(K28, _xlfn.SEQUENCE(LEN(K28)), 1))))*1000-L9</f>
+        <v>9000</v>
+      </c>
+      <c r="N9" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="O9" cm="1">
+        <f t="array" ref="O9">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N43, _xlfn.SEQUENCE(LEN(N43)), 1), ISNUMBER(--MID(N43, _xlfn.SEQUENCE(LEN(N43)), 1))))*1000</f>
+        <v>21000</v>
+      </c>
+      <c r="P9" cm="1">
+        <f t="array" ref="P9">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N28, _xlfn.SEQUENCE(LEN(N28)), 1), ISNUMBER(--MID(N28, _xlfn.SEQUENCE(LEN(N28)), 1))))*1000-O9</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -997,23 +1737,38 @@
       <c r="H10" s="2">
         <v>42</v>
       </c>
-      <c r="I10">
-        <v>18000</v>
-      </c>
-      <c r="J10">
+      <c r="I10" cm="1">
+        <f t="array" ref="I10">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H44, _xlfn.SEQUENCE(LEN(H44)), 1), ISNUMBER(--MID(H44, _xlfn.SEQUENCE(LEN(H44)), 1))))*1000</f>
+        <v>21000</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H29, _xlfn.SEQUENCE(LEN(H29)), 1), ISNUMBER(--MID(H29, _xlfn.SEQUENCE(LEN(H29)), 1))))*1000-I10</f>
+        <v>10000</v>
+      </c>
+      <c r="K10" s="1">
+        <v>44.3</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K44, _xlfn.SEQUENCE(LEN(K44)), 1), ISNUMBER(--MID(K44, _xlfn.SEQUENCE(LEN(K44)), 1))))*1000</f>
+        <v>22000</v>
+      </c>
+      <c r="M10" cm="1">
+        <f t="array" ref="M10">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K29, _xlfn.SEQUENCE(LEN(K29)), 1), ISNUMBER(--MID(K29, _xlfn.SEQUENCE(LEN(K29)), 1))))*1000-L10</f>
+        <v>10000</v>
+      </c>
+      <c r="N10" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="O10" cm="1">
+        <f t="array" ref="O10">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N44, _xlfn.SEQUENCE(LEN(N44)), 1), ISNUMBER(--MID(N44, _xlfn.SEQUENCE(LEN(N44)), 1))))*1000</f>
+        <v>21000</v>
+      </c>
+      <c r="P10" cm="1">
+        <f t="array" ref="P10">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N29, _xlfn.SEQUENCE(LEN(N29)), 1), ISNUMBER(--MID(N29, _xlfn.SEQUENCE(LEN(N29)), 1))))*1000-O10</f>
         <v>8000</v>
       </c>
-      <c r="K10" s="1">
-        <v>45</v>
-      </c>
-      <c r="L10">
-        <v>12000</v>
-      </c>
-      <c r="M10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,23 +1793,38 @@
       <c r="H11" s="2">
         <v>53</v>
       </c>
-      <c r="I11">
-        <v>22000</v>
-      </c>
-      <c r="J11">
-        <v>9000</v>
+      <c r="I11" cm="1">
+        <f t="array" ref="I11">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H45, _xlfn.SEQUENCE(LEN(H45)), 1), ISNUMBER(--MID(H45, _xlfn.SEQUENCE(LEN(H45)), 1))))*1000</f>
+        <v>25000</v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H30, _xlfn.SEQUENCE(LEN(H30)), 1), ISNUMBER(--MID(H30, _xlfn.SEQUENCE(LEN(H30)), 1))))*1000-I11</f>
+        <v>12000</v>
       </c>
       <c r="K11" s="1">
         <v>57</v>
       </c>
-      <c r="L11">
-        <v>14000</v>
-      </c>
-      <c r="M11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K45, _xlfn.SEQUENCE(LEN(K45)), 1), ISNUMBER(--MID(K45, _xlfn.SEQUENCE(LEN(K45)), 1))))*1000</f>
+        <v>25000</v>
+      </c>
+      <c r="M11" cm="1">
+        <f t="array" ref="M11">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K30, _xlfn.SEQUENCE(LEN(K30)), 1), ISNUMBER(--MID(K30, _xlfn.SEQUENCE(LEN(K30)), 1))))*1000-L11</f>
+        <v>10000</v>
+      </c>
+      <c r="N11" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="O11" cm="1">
+        <f t="array" ref="O11">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N45, _xlfn.SEQUENCE(LEN(N45)), 1), ISNUMBER(--MID(N45, _xlfn.SEQUENCE(LEN(N45)), 1))))*1000</f>
+        <v>26000</v>
+      </c>
+      <c r="P11" cm="1">
+        <f t="array" ref="P11">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N30, _xlfn.SEQUENCE(LEN(N30)), 1), ISNUMBER(--MID(N30, _xlfn.SEQUENCE(LEN(N30)), 1))))*1000-O11</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1079,20 +1849,635 @@
       <c r="H12" s="2">
         <v>90</v>
       </c>
-      <c r="I12">
-        <v>29000</v>
-      </c>
-      <c r="J12">
+      <c r="I12" cm="1">
+        <f t="array" ref="I12">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H46, _xlfn.SEQUENCE(LEN(H46)), 1), ISNUMBER(--MID(H46, _xlfn.SEQUENCE(LEN(H46)), 1))))*1000</f>
+        <v>32000</v>
+      </c>
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H31, _xlfn.SEQUENCE(LEN(H31)), 1), ISNUMBER(--MID(H31, _xlfn.SEQUENCE(LEN(H31)), 1))))*1000-I12</f>
+        <v>13000</v>
+      </c>
+      <c r="K12" s="1">
+        <v>99.4</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K46, _xlfn.SEQUENCE(LEN(K46)), 1), ISNUMBER(--MID(K46, _xlfn.SEQUENCE(LEN(K46)), 1))))*1000</f>
+        <v>36000</v>
+      </c>
+      <c r="M12" cm="1">
+        <f t="array" ref="M12">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K31, _xlfn.SEQUENCE(LEN(K31)), 1), ISNUMBER(--MID(K31, _xlfn.SEQUENCE(LEN(K31)), 1))))*1000-L12</f>
+        <v>13000</v>
+      </c>
+      <c r="N12" s="1">
+        <v>104.9</v>
+      </c>
+      <c r="O12" cm="1">
+        <f t="array" ref="O12">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N46, _xlfn.SEQUENCE(LEN(N46)), 1), ISNUMBER(--MID(N46, _xlfn.SEQUENCE(LEN(N46)), 1))))*1000</f>
+        <v>35000</v>
+      </c>
+      <c r="P12" cm="1">
+        <f t="array" ref="P12">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N31, _xlfn.SEQUENCE(LEN(N31)), 1), ISNUMBER(--MID(N31, _xlfn.SEQUENCE(LEN(N31)), 1))))*1000-O12</f>
         <v>10000</v>
       </c>
-      <c r="K12" s="1">
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G19" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="H20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G34" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="H35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G41" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G42" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K42" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="L12">
-        <v>22000</v>
-      </c>
-      <c r="M12">
-        <v>4000</v>
+      <c r="L42" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G45" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G46" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G47" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1101,11 +2486,210 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476DCF36-78CD-B34B-B4D9-753F9E751387}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B49990-FE84-9C47-925E-40785ECCAF8C}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1114,50 +2698,56 @@
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="H1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.2">
@@ -1182,7 +2772,7 @@
       <c r="G3">
         <v>14000</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
@@ -1191,7 +2781,9 @@
       <c r="J3">
         <v>7000</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1215,8 +2807,8 @@
       <c r="G4">
         <v>5000</v>
       </c>
-      <c r="H4" s="2">
-        <v>6</v>
+      <c r="H4" s="1">
+        <v>6.4</v>
       </c>
       <c r="I4">
         <v>8000</v>
@@ -1224,7 +2816,9 @@
       <c r="J4">
         <v>3000</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>6.97</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1248,8 +2842,8 @@
       <c r="G5">
         <v>3000</v>
       </c>
-      <c r="H5" s="2">
-        <v>10</v>
+      <c r="H5" s="1">
+        <v>11.1</v>
       </c>
       <c r="I5">
         <v>6000</v>
@@ -1257,7 +2851,9 @@
       <c r="J5">
         <v>2000</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>11.87</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1281,8 +2877,8 @@
       <c r="G6">
         <v>3000</v>
       </c>
-      <c r="H6" s="2">
-        <v>14</v>
+      <c r="H6" s="1">
+        <v>14.8</v>
       </c>
       <c r="I6">
         <v>5000</v>
@@ -1290,7 +2886,9 @@
       <c r="J6">
         <v>1000</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>15.54</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1314,8 +2912,8 @@
       <c r="G7">
         <v>3000</v>
       </c>
-      <c r="H7" s="2">
-        <v>19</v>
+      <c r="H7" s="1">
+        <v>19.8</v>
       </c>
       <c r="I7">
         <v>5000</v>
@@ -1323,7 +2921,9 @@
       <c r="J7">
         <v>2000</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>20.9</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1347,8 +2947,8 @@
       <c r="G8">
         <v>3000</v>
       </c>
-      <c r="H8" s="2">
-        <v>24</v>
+      <c r="H8" s="1">
+        <v>25.9</v>
       </c>
       <c r="I8">
         <v>4000</v>
@@ -1356,7 +2956,9 @@
       <c r="J8">
         <v>1000</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>27.3</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1380,8 +2982,8 @@
       <c r="G9">
         <v>3000</v>
       </c>
-      <c r="H9" s="2">
-        <v>32</v>
+      <c r="H9" s="1">
+        <v>33.6</v>
       </c>
       <c r="I9">
         <v>4000</v>
@@ -1389,7 +2991,9 @@
       <c r="J9">
         <v>1000</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1">
+        <v>35.6</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1413,8 +3017,8 @@
       <c r="G10">
         <v>2000</v>
       </c>
-      <c r="H10" s="2">
-        <v>42</v>
+      <c r="H10" s="1">
+        <v>44.3</v>
       </c>
       <c r="I10">
         <v>3000</v>
@@ -1422,7 +3026,9 @@
       <c r="J10">
         <v>1000</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1446,8 +3052,8 @@
       <c r="G11">
         <v>3000</v>
       </c>
-      <c r="H11" s="2">
-        <v>53</v>
+      <c r="H11" s="1">
+        <v>57</v>
       </c>
       <c r="I11">
         <v>4000</v>
@@ -1455,7 +3061,9 @@
       <c r="J11">
         <v>2000</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <v>61.2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1479,8 +3087,8 @@
       <c r="G12">
         <v>4000</v>
       </c>
-      <c r="H12" s="2">
-        <v>90</v>
+      <c r="H12" s="1">
+        <v>99.4</v>
       </c>
       <c r="I12">
         <v>5000</v>
@@ -1488,19 +3096,21 @@
       <c r="J12">
         <v>1000</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1">
+        <v>104.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B18E95-3AB5-9B44-826A-07D1DCB1EC56}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E12"/>
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1511,65 +3121,77 @@
     <col min="11" max="11" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="N1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="5" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="N2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1594,23 +3216,38 @@
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>4000</v>
-      </c>
-      <c r="J3">
+      <c r="I3" cm="1">
+        <f t="array" ref="I3">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H37, _xlfn.SEQUENCE(LEN(H37)), 1), ISNUMBER(--MID(H37, _xlfn.SEQUENCE(LEN(H37)), 1))))*1000</f>
+        <v>5000</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H22, _xlfn.SEQUENCE(LEN(H22)), 1), ISNUMBER(--MID(H22, _xlfn.SEQUENCE(LEN(H22)), 1))))*1000-I3</f>
         <v>2000</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>5000</v>
-      </c>
-      <c r="M3">
+      <c r="L3" cm="1">
+        <f t="array" ref="L3">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K37, _xlfn.SEQUENCE(LEN(K37)), 1), ISNUMBER(--MID(K37, _xlfn.SEQUENCE(LEN(K37)), 1))))*1000</f>
+        <v>6000</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K22, _xlfn.SEQUENCE(LEN(K22)), 1), ISNUMBER(--MID(K22, _xlfn.SEQUENCE(LEN(K22)), 1))))*1000-L3</f>
+        <v>3000</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" cm="1">
+        <f t="array" ref="O3">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N37, _xlfn.SEQUENCE(LEN(N37)), 1), ISNUMBER(--MID(N37, _xlfn.SEQUENCE(LEN(N37)), 1))))*1000</f>
+        <v>2000</v>
+      </c>
+      <c r="P3" cm="1">
+        <f t="array" ref="P3">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N22, _xlfn.SEQUENCE(LEN(N22)), 1), ISNUMBER(--MID(N22, _xlfn.SEQUENCE(LEN(N22)), 1))))*1000-O3</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1635,23 +3272,38 @@
       <c r="H4" s="2">
         <v>6</v>
       </c>
-      <c r="I4">
+      <c r="I4" cm="1">
+        <f t="array" ref="I4">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H38, _xlfn.SEQUENCE(LEN(H38)), 1), ISNUMBER(--MID(H38, _xlfn.SEQUENCE(LEN(H38)), 1))))*1000</f>
         <v>3000</v>
       </c>
-      <c r="J4">
+      <c r="J4" cm="1">
+        <f t="array" ref="J4">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H23, _xlfn.SEQUENCE(LEN(H23)), 1), ISNUMBER(--MID(H23, _xlfn.SEQUENCE(LEN(H23)), 1))))*1000-I4</f>
+        <v>2000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="L4" cm="1">
+        <f t="array" ref="L4">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K38, _xlfn.SEQUENCE(LEN(K38)), 1), ISNUMBER(--MID(K38, _xlfn.SEQUENCE(LEN(K38)), 1))))*1000</f>
+        <v>3000</v>
+      </c>
+      <c r="M4" cm="1">
+        <f t="array" ref="M4">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K23, _xlfn.SEQUENCE(LEN(K23)), 1), ISNUMBER(--MID(K23, _xlfn.SEQUENCE(LEN(K23)), 1))))*1000-L4</f>
+        <v>2000</v>
+      </c>
+      <c r="N4" s="1">
+        <v>6.97</v>
+      </c>
+      <c r="O4" cm="1">
+        <f t="array" ref="O4">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N38, _xlfn.SEQUENCE(LEN(N38)), 1), ISNUMBER(--MID(N38, _xlfn.SEQUENCE(LEN(N38)), 1))))*1000</f>
         <v>1000</v>
       </c>
-      <c r="K4" s="1">
-        <v>7</v>
-      </c>
-      <c r="L4">
+      <c r="P4" cm="1">
+        <f t="array" ref="P4">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N23, _xlfn.SEQUENCE(LEN(N23)), 1), ISNUMBER(--MID(N23, _xlfn.SEQUENCE(LEN(N23)), 1))))*1000-O4</f>
         <v>2000</v>
       </c>
-      <c r="M4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1676,23 +3328,38 @@
       <c r="H5" s="2">
         <v>10</v>
       </c>
-      <c r="I5">
+      <c r="I5" cm="1">
+        <f t="array" ref="I5">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H39, _xlfn.SEQUENCE(LEN(H39)), 1), ISNUMBER(--MID(H39, _xlfn.SEQUENCE(LEN(H39)), 1))))*1000</f>
         <v>4000</v>
       </c>
-      <c r="J5">
+      <c r="J5" cm="1">
+        <f t="array" ref="J5">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H24, _xlfn.SEQUENCE(LEN(H24)), 1), ISNUMBER(--MID(H24, _xlfn.SEQUENCE(LEN(H24)), 1))))*1000-I5</f>
         <v>2000</v>
       </c>
       <c r="K5" s="1">
-        <v>11</v>
-      </c>
-      <c r="L5">
+        <v>11.1</v>
+      </c>
+      <c r="L5" cm="1">
+        <f t="array" ref="L5">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K39, _xlfn.SEQUENCE(LEN(K39)), 1), ISNUMBER(--MID(K39, _xlfn.SEQUENCE(LEN(K39)), 1))))*1000</f>
+        <v>13000</v>
+      </c>
+      <c r="M5" cm="1">
+        <f t="array" ref="M5">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K24, _xlfn.SEQUENCE(LEN(K24)), 1), ISNUMBER(--MID(K24, _xlfn.SEQUENCE(LEN(K24)), 1))))*1000-L5</f>
+        <v>2000</v>
+      </c>
+      <c r="N5" s="1">
+        <v>11.87</v>
+      </c>
+      <c r="O5" cm="1">
+        <f t="array" ref="O5">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N39, _xlfn.SEQUENCE(LEN(N39)), 1), ISNUMBER(--MID(N39, _xlfn.SEQUENCE(LEN(N39)), 1))))*1000</f>
         <v>11000</v>
       </c>
-      <c r="M5">
+      <c r="P5" cm="1">
+        <f t="array" ref="P5">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N24, _xlfn.SEQUENCE(LEN(N24)), 1), ISNUMBER(--MID(N24, _xlfn.SEQUENCE(LEN(N24)), 1))))*1000-O5</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1717,23 +3384,38 @@
       <c r="H6" s="2">
         <v>14</v>
       </c>
-      <c r="I6">
-        <v>40000</v>
-      </c>
-      <c r="J6">
-        <v>4000.0000000000036</v>
+      <c r="I6" cm="1">
+        <f t="array" ref="I6">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H40, _xlfn.SEQUENCE(LEN(H40)), 1), ISNUMBER(--MID(H40, _xlfn.SEQUENCE(LEN(H40)), 1))))*1000</f>
+        <v>42000</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H25, _xlfn.SEQUENCE(LEN(H25)), 1), ISNUMBER(--MID(H25, _xlfn.SEQUENCE(LEN(H25)), 1))))*1000-I6</f>
+        <v>5000</v>
       </c>
       <c r="K6" s="1">
-        <v>15</v>
-      </c>
-      <c r="L6">
-        <v>42000</v>
-      </c>
-      <c r="M6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+        <v>14.8</v>
+      </c>
+      <c r="L6" cm="1">
+        <f t="array" ref="L6">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K40, _xlfn.SEQUENCE(LEN(K40)), 1), ISNUMBER(--MID(K40, _xlfn.SEQUENCE(LEN(K40)), 1))))*1000</f>
+        <v>52000</v>
+      </c>
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K25, _xlfn.SEQUENCE(LEN(K25)), 1), ISNUMBER(--MID(K25, _xlfn.SEQUENCE(LEN(K25)), 1))))*1000-L6</f>
+        <v>5000</v>
+      </c>
+      <c r="N6" s="1">
+        <v>15.54</v>
+      </c>
+      <c r="O6" cm="1">
+        <f t="array" ref="O6">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N40, _xlfn.SEQUENCE(LEN(N40)), 1), ISNUMBER(--MID(N40, _xlfn.SEQUENCE(LEN(N40)), 1))))*1000</f>
+        <v>44000</v>
+      </c>
+      <c r="P6" cm="1">
+        <f t="array" ref="P6">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N25, _xlfn.SEQUENCE(LEN(N25)), 1), ISNUMBER(--MID(N25, _xlfn.SEQUENCE(LEN(N25)), 1))))*1000-O6</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1758,23 +3440,38 @@
       <c r="H7" s="2">
         <v>19</v>
       </c>
-      <c r="I7">
-        <v>46000</v>
-      </c>
-      <c r="J7">
-        <v>3999.9999999999964</v>
+      <c r="I7" cm="1">
+        <f t="array" ref="I7">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H41, _xlfn.SEQUENCE(LEN(H41)), 1), ISNUMBER(--MID(H41, _xlfn.SEQUENCE(LEN(H41)), 1))))*1000</f>
+        <v>48000</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H26, _xlfn.SEQUENCE(LEN(H26)), 1), ISNUMBER(--MID(H26, _xlfn.SEQUENCE(LEN(H26)), 1))))*1000-I7</f>
+        <v>6000</v>
       </c>
       <c r="K7" s="1">
-        <v>20</v>
-      </c>
-      <c r="L7">
-        <v>43000</v>
-      </c>
-      <c r="M7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+        <v>19.8</v>
+      </c>
+      <c r="L7" cm="1">
+        <f t="array" ref="L7">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K41, _xlfn.SEQUENCE(LEN(K41)), 1), ISNUMBER(--MID(K41, _xlfn.SEQUENCE(LEN(K41)), 1))))*1000</f>
+        <v>53000</v>
+      </c>
+      <c r="M7" cm="1">
+        <f t="array" ref="M7">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K26, _xlfn.SEQUENCE(LEN(K26)), 1), ISNUMBER(--MID(K26, _xlfn.SEQUENCE(LEN(K26)), 1))))*1000-L7</f>
+        <v>6000</v>
+      </c>
+      <c r="N7" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="O7" cm="1">
+        <f t="array" ref="O7">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N41, _xlfn.SEQUENCE(LEN(N41)), 1), ISNUMBER(--MID(N41, _xlfn.SEQUENCE(LEN(N41)), 1))))*1000</f>
+        <v>50000</v>
+      </c>
+      <c r="P7" cm="1">
+        <f t="array" ref="P7">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N26, _xlfn.SEQUENCE(LEN(N26)), 1), ISNUMBER(--MID(N26, _xlfn.SEQUENCE(LEN(N26)), 1))))*1000-O7</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1799,23 +3496,38 @@
       <c r="H8" s="2">
         <v>24</v>
       </c>
-      <c r="I8">
-        <v>54000</v>
-      </c>
-      <c r="J8">
-        <v>4999.9999999999991</v>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H42, _xlfn.SEQUENCE(LEN(H42)), 1), ISNUMBER(--MID(H42, _xlfn.SEQUENCE(LEN(H42)), 1))))*1000</f>
+        <v>57000</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H27, _xlfn.SEQUENCE(LEN(H27)), 1), ISNUMBER(--MID(H27, _xlfn.SEQUENCE(LEN(H27)), 1))))*1000-I8</f>
+        <v>7000</v>
       </c>
       <c r="K8" s="1">
-        <v>26</v>
-      </c>
-      <c r="L8">
-        <v>49000</v>
-      </c>
-      <c r="M8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+        <v>25.9</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K42, _xlfn.SEQUENCE(LEN(K42)), 1), ISNUMBER(--MID(K42, _xlfn.SEQUENCE(LEN(K42)), 1))))*1000</f>
+        <v>60000</v>
+      </c>
+      <c r="M8" cm="1">
+        <f t="array" ref="M8">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K27, _xlfn.SEQUENCE(LEN(K27)), 1), ISNUMBER(--MID(K27, _xlfn.SEQUENCE(LEN(K27)), 1))))*1000-L8</f>
+        <v>6000</v>
+      </c>
+      <c r="N8" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="O8" cm="1">
+        <f t="array" ref="O8">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N42, _xlfn.SEQUENCE(LEN(N42)), 1), ISNUMBER(--MID(N42, _xlfn.SEQUENCE(LEN(N42)), 1))))*1000</f>
+        <v>52000</v>
+      </c>
+      <c r="P8" cm="1">
+        <f t="array" ref="P8">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N27, _xlfn.SEQUENCE(LEN(N27)), 1), ISNUMBER(--MID(N27, _xlfn.SEQUENCE(LEN(N27)), 1))))*1000-O8</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1840,23 +3552,38 @@
       <c r="H9" s="2">
         <v>32</v>
       </c>
-      <c r="I9">
-        <v>55000</v>
-      </c>
-      <c r="J9">
-        <v>4999.9999999999991</v>
+      <c r="I9" cm="1">
+        <f t="array" ref="I9">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H43, _xlfn.SEQUENCE(LEN(H43)), 1), ISNUMBER(--MID(H43, _xlfn.SEQUENCE(LEN(H43)), 1))))*1000</f>
+        <v>58000</v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H28, _xlfn.SEQUENCE(LEN(H28)), 1), ISNUMBER(--MID(H28, _xlfn.SEQUENCE(LEN(H28)), 1))))*1000-I9</f>
+        <v>7000</v>
       </c>
       <c r="K9" s="1">
-        <v>34</v>
-      </c>
-      <c r="L9">
-        <v>48000</v>
-      </c>
-      <c r="M9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+        <v>33.6</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K43, _xlfn.SEQUENCE(LEN(K43)), 1), ISNUMBER(--MID(K43, _xlfn.SEQUENCE(LEN(K43)), 1))))*1000</f>
+        <v>59000</v>
+      </c>
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K28, _xlfn.SEQUENCE(LEN(K28)), 1), ISNUMBER(--MID(K28, _xlfn.SEQUENCE(LEN(K28)), 1))))*1000-L9</f>
+        <v>6000</v>
+      </c>
+      <c r="N9" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="O9" cm="1">
+        <f t="array" ref="O9">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N43, _xlfn.SEQUENCE(LEN(N43)), 1), ISNUMBER(--MID(N43, _xlfn.SEQUENCE(LEN(N43)), 1))))*1000</f>
+        <v>52000</v>
+      </c>
+      <c r="P9" cm="1">
+        <f t="array" ref="P9">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N28, _xlfn.SEQUENCE(LEN(N28)), 1), ISNUMBER(--MID(N28, _xlfn.SEQUENCE(LEN(N28)), 1))))*1000-O9</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1881,23 +3608,38 @@
       <c r="H10" s="2">
         <v>42</v>
       </c>
-      <c r="I10">
-        <v>51000</v>
-      </c>
-      <c r="J10">
-        <v>4999.9999999999991</v>
+      <c r="I10" cm="1">
+        <f t="array" ref="I10">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H44, _xlfn.SEQUENCE(LEN(H44)), 1), ISNUMBER(--MID(H44, _xlfn.SEQUENCE(LEN(H44)), 1))))*1000</f>
+        <v>54000</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H29, _xlfn.SEQUENCE(LEN(H29)), 1), ISNUMBER(--MID(H29, _xlfn.SEQUENCE(LEN(H29)), 1))))*1000-I10</f>
+        <v>6000</v>
       </c>
       <c r="K10" s="1">
-        <v>45</v>
-      </c>
-      <c r="L10">
-        <v>49000</v>
-      </c>
-      <c r="M10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+        <v>44.3</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K44, _xlfn.SEQUENCE(LEN(K44)), 1), ISNUMBER(--MID(K44, _xlfn.SEQUENCE(LEN(K44)), 1))))*1000</f>
+        <v>60000</v>
+      </c>
+      <c r="M10" cm="1">
+        <f t="array" ref="M10">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K29, _xlfn.SEQUENCE(LEN(K29)), 1), ISNUMBER(--MID(K29, _xlfn.SEQUENCE(LEN(K29)), 1))))*1000-L10</f>
+        <v>7000</v>
+      </c>
+      <c r="N10" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="O10" cm="1">
+        <f t="array" ref="O10">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N44, _xlfn.SEQUENCE(LEN(N44)), 1), ISNUMBER(--MID(N44, _xlfn.SEQUENCE(LEN(N44)), 1))))*1000</f>
+        <v>59000</v>
+      </c>
+      <c r="P10" cm="1">
+        <f t="array" ref="P10">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N29, _xlfn.SEQUENCE(LEN(N29)), 1), ISNUMBER(--MID(N29, _xlfn.SEQUENCE(LEN(N29)), 1))))*1000-O10</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1922,23 +3664,38 @@
       <c r="H11" s="2">
         <v>53</v>
       </c>
-      <c r="I11">
-        <v>56000</v>
-      </c>
-      <c r="J11">
-        <v>7000.0000000000045</v>
+      <c r="I11" cm="1">
+        <f t="array" ref="I11">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H45, _xlfn.SEQUENCE(LEN(H45)), 1), ISNUMBER(--MID(H45, _xlfn.SEQUENCE(LEN(H45)), 1))))*1000</f>
+        <v>60000</v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H30, _xlfn.SEQUENCE(LEN(H30)), 1), ISNUMBER(--MID(H30, _xlfn.SEQUENCE(LEN(H30)), 1))))*1000-I11</f>
+        <v>10000</v>
       </c>
       <c r="K11" s="1">
         <v>57</v>
       </c>
-      <c r="L11">
-        <v>55000</v>
-      </c>
-      <c r="M11">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K45, _xlfn.SEQUENCE(LEN(K45)), 1), ISNUMBER(--MID(K45, _xlfn.SEQUENCE(LEN(K45)), 1))))*1000</f>
+        <v>71000</v>
+      </c>
+      <c r="M11" cm="1">
+        <f t="array" ref="M11">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K30, _xlfn.SEQUENCE(LEN(K30)), 1), ISNUMBER(--MID(K30, _xlfn.SEQUENCE(LEN(K30)), 1))))*1000-L11</f>
+        <v>11000</v>
+      </c>
+      <c r="N11" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="O11" cm="1">
+        <f t="array" ref="O11">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N45, _xlfn.SEQUENCE(LEN(N45)), 1), ISNUMBER(--MID(N45, _xlfn.SEQUENCE(LEN(N45)), 1))))*1000</f>
+        <v>62000</v>
+      </c>
+      <c r="P11" cm="1">
+        <f t="array" ref="P11">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N30, _xlfn.SEQUENCE(LEN(N30)), 1), ISNUMBER(--MID(N30, _xlfn.SEQUENCE(LEN(N30)), 1))))*1000-O11</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1963,25 +3720,638 @@
       <c r="H12" s="2">
         <v>90</v>
       </c>
-      <c r="I12">
-        <v>42000</v>
-      </c>
-      <c r="J12">
-        <v>8000</v>
+      <c r="I12" cm="1">
+        <f t="array" ref="I12">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H46, _xlfn.SEQUENCE(LEN(H46)), 1), ISNUMBER(--MID(H46, _xlfn.SEQUENCE(LEN(H46)), 1))))*1000</f>
+        <v>45000</v>
+      </c>
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(H31, _xlfn.SEQUENCE(LEN(H31)), 1), ISNUMBER(--MID(H31, _xlfn.SEQUENCE(LEN(H31)), 1))))*1000-I12</f>
+        <v>11000</v>
       </c>
       <c r="K12" s="1">
-        <v>100</v>
-      </c>
-      <c r="L12">
-        <v>46000</v>
-      </c>
-      <c r="M12">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>99.4</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K46, _xlfn.SEQUENCE(LEN(K46)), 1), ISNUMBER(--MID(K46, _xlfn.SEQUENCE(LEN(K46)), 1))))*1000</f>
+        <v>59000</v>
+      </c>
+      <c r="M12" cm="1">
+        <f t="array" ref="M12">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(K31, _xlfn.SEQUENCE(LEN(K31)), 1), ISNUMBER(--MID(K31, _xlfn.SEQUENCE(LEN(K31)), 1))))*1000-L12</f>
+        <v>13000</v>
+      </c>
+      <c r="N12" s="1">
+        <v>104.9</v>
+      </c>
+      <c r="O12" cm="1">
+        <f t="array" ref="O12">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N46, _xlfn.SEQUENCE(LEN(N46)), 1), ISNUMBER(--MID(N46, _xlfn.SEQUENCE(LEN(N46)), 1))))*1000</f>
+        <v>57000</v>
+      </c>
+      <c r="P12" cm="1">
+        <f t="array" ref="P12">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER(MID(N31, _xlfn.SEQUENCE(LEN(N31)), 1), ISNUMBER(--MID(N31, _xlfn.SEQUENCE(LEN(N31)), 1))))*1000-O12</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G34" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="H35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G41" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G42" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G45" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G46" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G47" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1989,12 +4359,223 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3ACF51-3D24-6F41-8CA7-C842610BA9FB}">
-  <dimension ref="A1:B5"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFA1B66-FFFA-9A45-8B5A-8C8A0FE905EC}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41673AE0-C4E9-684F-AB73-E2EDF0C87115}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3ACF51-3D24-6F41-8CA7-C842610BA9FB}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2039,6 +4620,14 @@
         <v>12570</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>12570</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
